--- a/PowerBI/ExcelBI/Folha+de+Pagamento+e+Vendas.xlsx
+++ b/PowerBI/ExcelBI/Folha+de+Pagamento+e+Vendas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Office Avançado com VBA 2022\PowerBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Codigos\Excel projects\PowerBI\ExcelBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD0D93-5F8E-4E12-9CDE-73D99AA5ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha de Pagamento" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Folha de Pagamento'!$A$1:$F$43</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -223,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -279,23 +284,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,17 +573,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="7" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,234 +597,214 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1600</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D3">
         <v>65</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="2">
-        <f>IF(D3&lt;=10,100,IF(D3&lt;=30,500,IF(D3&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+        <f>IF(D3&lt;50,0,IF(D3&gt;=100,1200,500))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1600</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1600</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D6">
         <v>36</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="2">
-        <f>IF(D6&lt;=10,100,IF(D6&lt;=30,500,IF(D6&lt;=45,1200,0)))</f>
+        <f>IF(D6&lt;50,0,IF(D6&gt;=100,1200,500))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D9">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2">
+        <f>IF(D9&lt;50,0,IF(D9&gt;=100,1200,500))</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
         <v>1300</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1488.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2">
+        <f>IF(D12&lt;50,0,IF(D12&gt;=100,1200,500))</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1488.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1488.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3">
         <v>1600</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D9" s="8">
-        <v>129</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2">
-        <f>IF(D9&lt;=10,100,IF(D9&lt;=30,500,IF(D9&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1300</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1488.95</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D12" s="8">
-        <v>128</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2">
-        <f>IF(D12&lt;=10,100,IF(D12&lt;=30,500,IF(D12&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1488.95</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1488.95</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1600</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,10 +814,8 @@
       <c r="C16" s="2">
         <v>1300</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,10 +825,8 @@
       <c r="C17" s="2">
         <v>1200</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,10 +836,8 @@
       <c r="C18" s="2">
         <v>1200</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +847,6 @@
       <c r="C19" s="2">
         <v>1300</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -883,116 +858,110 @@
       <c r="C20" s="2">
         <v>1700</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>58</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="2">
-        <f>IF(D20&lt;=10,100,IF(D20&lt;=30,500,IF(D20&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="F20:F21" si="0">IF(D20&lt;50,0,IF(D20&gt;=100,1200,500))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D21">
         <v>127</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="2">
-        <f>IF(D21&lt;=10,100,IF(D21&lt;=30,500,IF(D21&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="3">
+        <v>1700</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D24">
         <v>35</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="2">
-        <f>IF(D24&lt;=10,100,IF(D24&lt;=30,500,IF(D24&lt;=45,1200,0)))</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(D24&lt;50,0,IF(D24&gt;=100,1200,500))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2">
         <v>1700</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D26">
         <v>48</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="2">
-        <f>IF(D26&lt;=10,100,IF(D26&lt;=30,500,IF(D26&lt;=45,1200,0)))</f>
+        <f t="shared" ref="F26:F27" si="1">IF(D26&lt;50,0,IF(D26&gt;=100,1200,500))</f>
         <v>0</v>
       </c>
     </row>
@@ -1000,309 +969,302 @@
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D27">
         <v>55</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="2">
-        <f>IF(D27&lt;=10,100,IF(D27&lt;=30,500,IF(D27&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="3">
+        <v>1700</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="2">
         <v>1700</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>27</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="2">
-        <f>IF(D30&lt;=10,100,IF(D30&lt;=30,500,IF(D30&lt;=45,1200,0)))</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(D30&lt;50,0,IF(D30&gt;=100,1200,500))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D33">
         <v>65</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="2">
-        <f>IF(D33&lt;=10,100,IF(D33&lt;=30,500,IF(D33&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="F33:F36" si="2">IF(D33&lt;50,0,IF(D33&gt;=100,1200,500))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="C34" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D34">
         <v>36</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="2">
-        <f>IF(D34&lt;=10,100,IF(D34&lt;=30,500,IF(D34&lt;=45,1200,0)))</f>
-        <v>1200</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="C35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D35">
         <v>119</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="2">
-        <f>IF(D35&lt;=10,100,IF(D35&lt;=30,500,IF(D35&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="C36" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D36">
         <v>48</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="2">
-        <f>IF(D36&lt;=10,100,IF(D36&lt;=30,500,IF(D36&lt;=45,1200,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>1700</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>1488.95</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="C41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D41">
         <v>53</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" t="s">
         <v>53</v>
       </c>
       <c r="F41" s="2">
-        <f>IF(D41&lt;=10,100,IF(D41&lt;=30,500,IF(D41&lt;=45,1200,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="F41:F43" si="3">IF(D41&lt;50,0,IF(D41&gt;=100,1200,500))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D42" s="8">
+      <c r="C42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="2">
-        <f>IF(D42&lt;=10,100,IF(D42&lt;=30,500,IF(D42&lt;=45,1200,0)))</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D43">
         <v>27</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="2">
-        <f>IF(D43&lt;=10,100,IF(D43&lt;=30,500,IF(D43&lt;=45,1200,0)))</f>
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F43" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="VENDAS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1321,7 +1283,7 @@
         <f>'Folha de Pagamento'!D1</f>
         <v>Vendas</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="1" t="str">

--- a/PowerBI/ExcelBI/Folha+de+Pagamento+e+Vendas.xlsx
+++ b/PowerBI/ExcelBI/Folha+de+Pagamento+e+Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Codigos\Excel projects\PowerBI\ExcelBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD0D93-5F8E-4E12-9CDE-73D99AA5ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3AB60E-9327-464E-B269-17C3FA88AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F43"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,14 +675,14 @@
         <v>1700</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="2">
         <f>IF(D6&lt;50,0,IF(D6&gt;=100,1200,500))</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="B6">
         <f>'Folha de Pagamento'!D6</f>
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>2872.7999999999997</v>
+        <v>23940</v>
       </c>
       <c r="D6" t="str">
         <f>'Folha de Pagamento'!E6</f>
